--- a/new-stats/neom-sc.xlsx
+++ b/new-stats/neom-sc.xlsx
@@ -1212,22 +1212,62 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>10/01/2026</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Neom FC</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Al Fateh</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="M14" t="n">
+        <v>13</v>
+      </c>
+      <c r="N14" t="n">
+        <v>8</v>
+      </c>
+      <c r="O14" t="n">
+        <v>4</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>

--- a/new-stats/neom-sc.xlsx
+++ b/new-stats/neom-sc.xlsx
@@ -1270,22 +1270,62 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14/01/2026</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Al-Shabab</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Neom FC</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="M15" t="n">
+        <v>11</v>
+      </c>
+      <c r="N15" t="n">
+        <v>19</v>
+      </c>
+      <c r="O15" t="n">
+        <v>4</v>
+      </c>
+      <c r="P15" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>

--- a/new-stats/neom-sc.xlsx
+++ b/new-stats/neom-sc.xlsx
@@ -1328,58 +1328,178 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>18/01/2026</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Neom FC</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Al-Hilal</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="M16" t="n">
+        <v>12</v>
+      </c>
+      <c r="N16" t="n">
+        <v>16</v>
+      </c>
+      <c r="O16" t="n">
+        <v>5</v>
+      </c>
+      <c r="P16" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Al-Ettifaq</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Neom FC</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="M17" t="n">
+        <v>7</v>
+      </c>
+      <c r="N17" t="n">
+        <v>8</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>24/01/2026</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Neom FC</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Al-Ahli</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="M18" t="n">
+        <v>10</v>
+      </c>
+      <c r="N18" t="n">
+        <v>10</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>

--- a/new-stats/neom-sc.xlsx
+++ b/new-stats/neom-sc.xlsx
@@ -1502,22 +1502,62 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>30/01/2026</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Neom FC</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Damac</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="M19" t="n">
+        <v>14</v>
+      </c>
+      <c r="N19" t="n">
+        <v>15</v>
+      </c>
+      <c r="O19" t="n">
+        <v>9</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>

--- a/new-stats/neom-sc.xlsx
+++ b/new-stats/neom-sc.xlsx
@@ -1560,22 +1560,62 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>02/02/2026</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Al Okhdood</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Neom FC</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="M20" t="n">
+        <v>19</v>
+      </c>
+      <c r="N20" t="n">
+        <v>7</v>
+      </c>
+      <c r="O20" t="n">
+        <v>5</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>

--- a/new-stats/neom-sc.xlsx
+++ b/new-stats/neom-sc.xlsx
@@ -1618,22 +1618,62 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>06/02/2026</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Neom FC</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Al Riyadh</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M21" t="n">
+        <v>7</v>
+      </c>
+      <c r="N21" t="n">
+        <v>13</v>
+      </c>
+      <c r="O21" t="n">
+        <v>2</v>
+      </c>
+      <c r="P21" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>

--- a/new-stats/neom-sc.xlsx
+++ b/new-stats/neom-sc.xlsx
@@ -1676,22 +1676,62 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>12/02/2026</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Al Qadsiah</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Neom FC</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="M22" t="n">
+        <v>9</v>
+      </c>
+      <c r="N22" t="n">
+        <v>10</v>
+      </c>
+      <c r="O22" t="n">
+        <v>7</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
